--- a/KPMG/Benchmark Appraisal/PIID/PCM.xlsx
+++ b/KPMG/Benchmark Appraisal/PIID/PCM.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>PCM</t>
   </si>
@@ -93,18 +93,6 @@
   </si>
   <si>
     <t>ORG_QMS</t>
-  </si>
-  <si>
-    <t>QMS contains all relevant process for organization.</t>
-  </si>
-  <si>
-    <t>S:</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t xml:space="preserve">Appraise the current process implementation and identify strengths and weaknesses. </t>
@@ -170,9 +158,6 @@
     <t xml:space="preserve">Explore and evaluate potential new processes, techniques, methods, and tools to identify improvement opportunities. </t>
   </si>
   <si>
-    <t>Release note has all changes during release.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Provide support for implementing, deploying, and sustaining process improvements. </t>
   </si>
   <si>
@@ -203,70 +188,10 @@
     <t>** Minimum 2 and maximum 3 evidences require for each practice</t>
   </si>
   <si>
-    <t>project learnings database</t>
-  </si>
-  <si>
     <t>Audit reports sent to PEG</t>
   </si>
   <si>
-    <t>I: internal regular process appraisals need to be formalised</t>
-  </si>
-  <si>
-    <t>I: the use of the log needs to be further increased, there are very few proposals. Also, the accept rate must be improved.</t>
-  </si>
-  <si>
-    <t>W: the analysis in the audit report is repetitive and does not demonstrate improvements in response to identified improvement suggestions.</t>
-  </si>
-  <si>
-    <t>QMS change request log</t>
-  </si>
-  <si>
-    <t>I: Business objectives and process objectives should have a many-many relationship.</t>
-  </si>
-  <si>
     <t>Doc</t>
-  </si>
-  <si>
-    <t>I: the evaluation of new processes for inclusion needs to be objective and formal.</t>
-  </si>
-  <si>
-    <t>PQA</t>
-  </si>
-  <si>
-    <t>Aff</t>
-  </si>
-  <si>
-    <t>PEG affirms that templates and logs exist for use.</t>
-  </si>
-  <si>
-    <t>PEG affirms that processes are appraised on regular basis.</t>
-  </si>
-  <si>
-    <t>PEG affirms that improvement opportunities are captured and included in next release of QMS.</t>
-  </si>
-  <si>
-    <t>PEG affirms that he analysis in the audit report is repetitive and does not demonstrate valulable improvements.</t>
-  </si>
-  <si>
-    <t>PEG affirms that business objectives as communicated by senior management mapped with process objective.</t>
-  </si>
-  <si>
-    <t>PEG affirms that BOTOPO contains he key processes that mapped to the business objectives.</t>
-  </si>
-  <si>
-    <t>I: Multiple techniques should be available for RCA in addition to 8D CAPA such as Ishikawa diagram, 7QC tools, FMEA, DoE etc.</t>
-  </si>
-  <si>
-    <t>PEG affrims that i. release notes and release training is provided at each QMS release and ii. PQA function is tasked with facilitation and hand holding.</t>
-  </si>
-  <si>
-    <t>PEG affirms that MBR is created periodically to assess performance of the org with respect to defined measures.</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>LM</t>
   </si>
   <si>
     <t>ORG_Einframe</t>
@@ -312,6 +237,60 @@
   </si>
   <si>
     <t>ORG_MBR</t>
+  </si>
+  <si>
+    <t>project's incidents learnings database</t>
+  </si>
+  <si>
+    <t>QMS contains Policy &amp; all relevant process for organization.</t>
+  </si>
+  <si>
+    <t>ORG_Audit_Reports</t>
+  </si>
+  <si>
+    <t>Consolidated change requirements sheet for QMS</t>
+  </si>
+  <si>
+    <t>PEG Plan contains the measurement objectives that increase coverage in project management and engineering processes by release 2 major version of QMS in this FY 22-23.</t>
+  </si>
+  <si>
+    <t>In QMS change requirement sheet identify the in which process or artefacts changes effected.</t>
+  </si>
+  <si>
+    <t>Release note has all changes during release to mention which process effected by these changes.</t>
+  </si>
+  <si>
+    <t>QMS requirement sheet to address process improvement opportunities from various source.which identified that which process or artefacts changes effected.</t>
+  </si>
+  <si>
+    <t>Release note which shows implemented process clearly to all practioners.</t>
+  </si>
+  <si>
+    <t>After release the training session organized to make understand the revised, new implemented processes to practioners.</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_Sessions</t>
+  </si>
+  <si>
+    <t>Project management tool Einframe understanding sessions organized to make it useful.</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_Report_to_SM</t>
+  </si>
+  <si>
+    <t>Report to senior managemnet and involve to implementation supports.</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_Training_PPT_SM</t>
+  </si>
+  <si>
+    <t>Involved the senior management to finalize the Einframe hands on training ppt for practioners.</t>
+  </si>
+  <si>
+    <t>Project management tool Einframe understanding sessions organized to deploy.</t>
+  </si>
+  <si>
+    <t>Evaluated the process through Gap Analysis &amp; IR in Aug.22</t>
   </si>
 </sst>
 </file>
@@ -724,6 +703,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -734,9 +731,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,21 +748,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -776,7 +755,7 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -794,7 +773,70 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -921,13 +963,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,7 +1266,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1249,7 +1284,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B18"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1264,25 +1299,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1329,13 +1364,13 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="59">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="66" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="str">
@@ -1346,19 +1381,17 @@
         <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="8" t="str">
         <f>IF(MID(H4,2,1)=":",LEFT(H4,1),"-")</f>
         <v>-</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="7" t="str">
         <f>IF(COUNTIFS($E4,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v>X</v>
@@ -1371,39 +1404,35 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="52"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="58"/>
     </row>
     <row r="5" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D68" si="1">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="8" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(MID(H5,2,1)=":",LEFT(H5,1),"-")</f>
         <v>-</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="7" t="str">
         <f t="shared" ref="K5:M68" si="3">IF(COUNTIFS($E5,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v>X</v>
@@ -1419,25 +1448,25 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="52"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8" t="str">
@@ -1460,32 +1489,30 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="52"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="58"/>
     </row>
     <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="7" t="str">
@@ -1503,25 +1530,25 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="52"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="62"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="58"/>
+    </row>
+    <row r="8" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8" t="str">
@@ -1544,24 +1571,20 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="52"/>
-    </row>
-    <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="62"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="58"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1583,13 +1606,13 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="52"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="58"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1618,13 +1641,13 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="52"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="58"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="62"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1653,13 +1676,13 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="52"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="58"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1688,13 +1711,13 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="52"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="58"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="62"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1723,13 +1746,13 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="52"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="58"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1758,13 +1781,13 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="52"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="58"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1793,13 +1816,13 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="52"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="58"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1828,13 +1851,13 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="52"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="58"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1863,13 +1886,13 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="52"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="58"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1898,36 +1921,34 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="52"/>
-    </row>
-    <row r="19" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53">
+      <c r="Q18" s="61"/>
+      <c r="R18" s="58"/>
+    </row>
+    <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59">
         <v>1.2</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>21</v>
+      <c r="C19" s="57" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>I</v>
+        <v>-</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="7" t="str">
@@ -1942,35 +1963,31 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="52"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="58"/>
     </row>
     <row r="20" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="56"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H20"/>
-      <c r="I20" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="7" t="str">
         <f t="shared" si="3"/>
@@ -1987,65 +2004,61 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="52"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="58"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="56"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>OK</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="F21" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L21" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M21" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="52"/>
-    </row>
-    <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="56"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="58"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2067,13 +2080,13 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="52"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="58"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="56"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2102,13 +2115,13 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="52"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="58"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="56"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2137,13 +2150,13 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="52"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="58"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="56"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2152,9 +2165,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="7" t="str">
         <f t="shared" si="3"/>
@@ -2171,13 +2182,13 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="52"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="58"/>
     </row>
     <row r="26" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="56"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2206,13 +2217,13 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="52"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="58"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="56"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2241,13 +2252,13 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="52"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="58"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="56"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2276,13 +2287,13 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="52"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="58"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="56"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2311,13 +2322,13 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="52"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="58"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="56"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2346,13 +2357,13 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="52"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="58"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="56"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2381,13 +2392,13 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="52"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="58"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="56"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2416,13 +2427,13 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="52"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="58"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2451,36 +2462,34 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="52"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="58"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53">
+      <c r="A34" s="58"/>
+      <c r="B34" s="59">
         <v>1.3</v>
       </c>
-      <c r="C34" s="56" t="s">
-        <v>24</v>
+      <c r="C34" s="57" t="s">
+        <v>20</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H34" s="4"/>
       <c r="I34" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="7" t="str">
@@ -2495,30 +2504,28 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N34" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="52"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="58"/>
     </row>
     <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="56"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="8" t="str">
@@ -2541,24 +2548,20 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="52"/>
-    </row>
-    <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="56"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="58"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="58"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="4"/>
       <c r="I36" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2580,13 +2583,13 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="52"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="58"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2615,13 +2618,13 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="52"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="58"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="56"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2650,13 +2653,13 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="52"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="58"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="56"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2685,13 +2688,13 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="52"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="58"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="56"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2720,13 +2723,13 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="52"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="58"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="56"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2755,13 +2758,13 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="52"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="58"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="56"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2790,13 +2793,13 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="52"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="58"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="56"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2825,13 +2828,13 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="52"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="58"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="56"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2860,13 +2863,13 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="52"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="58"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="56"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2895,13 +2898,13 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="52"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="58"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="56"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2930,13 +2933,13 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="52"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="58"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="56"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2965,13 +2968,13 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="52"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="58"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3000,38 +3003,36 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="52"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="58"/>
     </row>
     <row r="49" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="53">
+      <c r="A49" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="59">
         <v>2.1</v>
       </c>
-      <c r="C49" s="56" t="s">
-        <v>29</v>
+      <c r="C49" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="D49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H49" s="4"/>
       <c r="I49" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>I</v>
+        <v>-</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="7" t="str">
@@ -3046,70 +3047,64 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N49" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="52"/>
-    </row>
-    <row r="50" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="56"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="58"/>
+    </row>
+    <row r="50" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E50" s="5"/>
+        <v>OK</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="F50" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H50" s="4"/>
       <c r="I50" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>-</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L50" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M50" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="52"/>
-    </row>
-    <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="56"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="58"/>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="7"/>
       <c r="I51" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3131,13 +3126,13 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="52"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="58"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="56"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3166,13 +3161,13 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="52"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="58"/>
     </row>
     <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="56"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3201,13 +3196,13 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="52"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="58"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="56"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3236,13 +3231,13 @@
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="52"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="58"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="56"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3271,13 +3266,13 @@
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="52"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="58"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="56"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3306,13 +3301,13 @@
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="52"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="58"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="56"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3341,13 +3336,13 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="52"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="58"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="56"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3376,13 +3371,13 @@
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="52"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="58"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="56"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3411,13 +3406,13 @@
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="52"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="58"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="56"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3446,13 +3441,13 @@
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="52"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="58"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="56"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3481,13 +3476,13 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="52"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="58"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="56"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3516,13 +3511,13 @@
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="52"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="58"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3551,29 +3546,29 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="52"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="58"/>
     </row>
     <row r="64" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53">
+      <c r="A64" s="58"/>
+      <c r="B64" s="59">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C64" s="56" t="s">
-        <v>31</v>
+      <c r="C64" s="57" t="s">
+        <v>27</v>
       </c>
       <c r="D64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="8" t="str">
@@ -3593,37 +3588,33 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N64" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="53"/>
-      <c r="R64" s="52"/>
-    </row>
-    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="56"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="58"/>
+    </row>
+    <row r="65" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H65" s="7"/>
       <c r="I65" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="7" t="str">
@@ -3641,24 +3632,20 @@
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="52"/>
-    </row>
-    <row r="66" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="56"/>
+      <c r="Q65" s="60"/>
+      <c r="R65" s="58"/>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="58"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="4"/>
       <c r="I66" s="8" t="str">
         <f t="shared" si="2"/>
@@ -3680,13 +3667,13 @@
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="52"/>
+      <c r="Q66" s="60"/>
+      <c r="R66" s="58"/>
     </row>
     <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="56"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3715,13 +3702,13 @@
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="52"/>
+      <c r="Q67" s="60"/>
+      <c r="R67" s="58"/>
     </row>
     <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="56"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3750,13 +3737,13 @@
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="52"/>
+      <c r="Q68" s="60"/>
+      <c r="R68" s="58"/>
     </row>
     <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="56"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="4" t="str">
         <f t="shared" ref="D69:D133" si="4">IF(LEN(E69)&gt;5,IF(LEN(K69&amp;L69&amp;M69)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -3785,13 +3772,13 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="52"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="58"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="52"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="56"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3820,13 +3807,13 @@
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
-      <c r="Q70" s="54"/>
-      <c r="R70" s="52"/>
+      <c r="Q70" s="60"/>
+      <c r="R70" s="58"/>
     </row>
     <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="52"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="56"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3855,13 +3842,13 @@
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="52"/>
+      <c r="Q71" s="60"/>
+      <c r="R71" s="58"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="56"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="57"/>
       <c r="D72" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3890,13 +3877,13 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="52"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="58"/>
     </row>
     <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="52"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="56"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3925,13 +3912,13 @@
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="52"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="58"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="56"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="57"/>
       <c r="D74" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3960,13 +3947,13 @@
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="52"/>
+      <c r="Q74" s="60"/>
+      <c r="R74" s="58"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="56"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3995,13 +3982,13 @@
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="52"/>
+      <c r="Q75" s="60"/>
+      <c r="R75" s="58"/>
     </row>
     <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="56"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4030,13 +4017,13 @@
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="52"/>
+      <c r="Q76" s="60"/>
+      <c r="R76" s="58"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="56"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4065,13 +4052,13 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="52"/>
+      <c r="Q77" s="60"/>
+      <c r="R77" s="58"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="52"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="56"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4100,38 +4087,36 @@
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
-      <c r="Q78" s="55"/>
-      <c r="R78" s="52"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="58"/>
     </row>
     <row r="79" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A79" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="53">
+      <c r="A79" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="59">
         <v>3.1</v>
       </c>
-      <c r="C79" s="56" t="s">
-        <v>35</v>
+      <c r="C79" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="D79" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H79" s="4"/>
       <c r="I79" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>I</v>
+        <v>-</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="7" t="str">
@@ -4146,30 +4131,28 @@
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="N79" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="52"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="58"/>
     </row>
     <row r="80" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="52"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="56"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="8" t="str">
@@ -4192,24 +4175,24 @@
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="52"/>
-    </row>
-    <row r="81" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A81" s="52"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="56"/>
+      <c r="Q80" s="60"/>
+      <c r="R80" s="58"/>
+    </row>
+    <row r="81" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="58"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="57"/>
       <c r="D81" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="E81" s="9"/>
+        <v>OK</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F81" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G81" s="10"/>
       <c r="H81" s="7"/>
       <c r="I81" s="8" t="str">
         <f t="shared" si="5"/>
@@ -4218,26 +4201,26 @@
       <c r="J81" s="8"/>
       <c r="K81" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L81" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M81" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="52"/>
+      <c r="Q81" s="60"/>
+      <c r="R81" s="58"/>
     </row>
     <row r="82" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="56"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4266,13 +4249,13 @@
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
-      <c r="Q82" s="54"/>
-      <c r="R82" s="52"/>
+      <c r="Q82" s="60"/>
+      <c r="R82" s="58"/>
     </row>
     <row r="83" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="56"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="57"/>
       <c r="D83" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4301,13 +4284,13 @@
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="52"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="58"/>
     </row>
     <row r="84" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="52"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="56"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="57"/>
       <c r="D84" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4336,13 +4319,13 @@
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
-      <c r="Q84" s="54"/>
-      <c r="R84" s="52"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="58"/>
     </row>
     <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="56"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="57"/>
       <c r="D85" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4371,13 +4354,13 @@
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-      <c r="Q85" s="54"/>
-      <c r="R85" s="52"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="58"/>
     </row>
     <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="52"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="56"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="57"/>
       <c r="D86" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4406,13 +4389,13 @@
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
-      <c r="Q86" s="54"/>
-      <c r="R86" s="52"/>
+      <c r="Q86" s="60"/>
+      <c r="R86" s="58"/>
     </row>
     <row r="87" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="52"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="56"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="57"/>
       <c r="D87" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4441,13 +4424,13 @@
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="52"/>
+      <c r="Q87" s="60"/>
+      <c r="R87" s="58"/>
     </row>
     <row r="88" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="52"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="56"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="57"/>
       <c r="D88" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4476,13 +4459,13 @@
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
-      <c r="Q88" s="54"/>
-      <c r="R88" s="52"/>
+      <c r="Q88" s="60"/>
+      <c r="R88" s="58"/>
     </row>
     <row r="89" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="56"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="57"/>
       <c r="D89" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4511,13 +4494,13 @@
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
-      <c r="Q89" s="54"/>
-      <c r="R89" s="52"/>
+      <c r="Q89" s="60"/>
+      <c r="R89" s="58"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="52"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="56"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="57"/>
       <c r="D90" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4546,13 +4529,13 @@
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
-      <c r="Q90" s="54"/>
-      <c r="R90" s="52"/>
+      <c r="Q90" s="60"/>
+      <c r="R90" s="58"/>
     </row>
     <row r="91" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="52"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="56"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="57"/>
       <c r="D91" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4581,13 +4564,13 @@
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
-      <c r="Q91" s="54"/>
-      <c r="R91" s="52"/>
+      <c r="Q91" s="60"/>
+      <c r="R91" s="58"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="56"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="57"/>
       <c r="D92" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4616,13 +4599,13 @@
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="54"/>
-      <c r="R92" s="52"/>
+      <c r="Q92" s="60"/>
+      <c r="R92" s="58"/>
     </row>
     <row r="93" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="52"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="56"/>
+      <c r="A93" s="58"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="57"/>
       <c r="D93" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4651,29 +4634,29 @@
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
-      <c r="Q93" s="55"/>
-      <c r="R93" s="52"/>
+      <c r="Q93" s="61"/>
+      <c r="R93" s="58"/>
     </row>
     <row r="94" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A94" s="52"/>
-      <c r="B94" s="63">
+      <c r="A94" s="58"/>
+      <c r="B94" s="52">
         <v>3.2</v>
       </c>
-      <c r="C94" s="62" t="s">
-        <v>40</v>
+      <c r="C94" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="D94" s="12" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="8" t="str">
@@ -4693,66 +4676,65 @@
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="N94" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
-      <c r="Q94" s="63"/>
-      <c r="R94" s="66"/>
+      <c r="Q94" s="52"/>
+      <c r="R94" s="56"/>
     </row>
     <row r="95" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="52"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="62"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="55"/>
       <c r="D95" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>Check</v>
+        <v>OK</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
-      <c r="K95" s="7"/>
+      <c r="K95" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
-      <c r="Q95" s="64"/>
-      <c r="R95" s="66"/>
+      <c r="Q95" s="53"/>
+      <c r="R95" s="56"/>
     </row>
     <row r="96" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A96" s="52"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="62"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="55"/>
       <c r="D96" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H96" s="7"/>
       <c r="I96" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="7" t="str">
@@ -4770,13 +4752,13 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
-      <c r="Q96" s="64"/>
-      <c r="R96" s="66"/>
+      <c r="Q96" s="53"/>
+      <c r="R96" s="56"/>
     </row>
     <row r="97" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="62"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="55"/>
       <c r="D97" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4805,13 +4787,13 @@
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
-      <c r="Q97" s="64"/>
-      <c r="R97" s="66"/>
+      <c r="Q97" s="53"/>
+      <c r="R97" s="56"/>
     </row>
     <row r="98" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="52"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="62"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="55"/>
       <c r="D98" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4840,13 +4822,13 @@
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
-      <c r="Q98" s="64"/>
-      <c r="R98" s="66"/>
+      <c r="Q98" s="53"/>
+      <c r="R98" s="56"/>
     </row>
     <row r="99" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="52"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="62"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="55"/>
       <c r="D99" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4875,13 +4857,13 @@
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
-      <c r="Q99" s="64"/>
-      <c r="R99" s="66"/>
+      <c r="Q99" s="53"/>
+      <c r="R99" s="56"/>
     </row>
     <row r="100" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="52"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="62"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="55"/>
       <c r="D100" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4910,13 +4892,13 @@
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
-      <c r="Q100" s="64"/>
-      <c r="R100" s="66"/>
+      <c r="Q100" s="53"/>
+      <c r="R100" s="56"/>
     </row>
     <row r="101" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="52"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="62"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="55"/>
       <c r="D101" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4945,13 +4927,13 @@
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
-      <c r="Q101" s="64"/>
-      <c r="R101" s="66"/>
+      <c r="Q101" s="53"/>
+      <c r="R101" s="56"/>
     </row>
     <row r="102" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="52"/>
-      <c r="B102" s="64"/>
-      <c r="C102" s="62"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="55"/>
       <c r="D102" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4980,13 +4962,13 @@
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
-      <c r="Q102" s="64"/>
-      <c r="R102" s="66"/>
+      <c r="Q102" s="53"/>
+      <c r="R102" s="56"/>
     </row>
     <row r="103" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="52"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="62"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="55"/>
       <c r="D103" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5015,13 +4997,13 @@
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
-      <c r="Q103" s="64"/>
-      <c r="R103" s="66"/>
+      <c r="Q103" s="53"/>
+      <c r="R103" s="56"/>
     </row>
     <row r="104" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="52"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="62"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="55"/>
       <c r="D104" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5050,13 +5032,13 @@
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
-      <c r="Q104" s="64"/>
-      <c r="R104" s="66"/>
+      <c r="Q104" s="53"/>
+      <c r="R104" s="56"/>
     </row>
     <row r="105" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="52"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="62"/>
+      <c r="A105" s="58"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="55"/>
       <c r="D105" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5085,13 +5067,13 @@
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
-      <c r="Q105" s="64"/>
-      <c r="R105" s="66"/>
+      <c r="Q105" s="53"/>
+      <c r="R105" s="56"/>
     </row>
     <row r="106" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="52"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="62"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="55"/>
       <c r="D106" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5120,13 +5102,13 @@
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
-      <c r="Q106" s="64"/>
-      <c r="R106" s="66"/>
+      <c r="Q106" s="53"/>
+      <c r="R106" s="56"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="52"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="62"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5155,13 +5137,13 @@
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
-      <c r="Q107" s="64"/>
-      <c r="R107" s="66"/>
+      <c r="Q107" s="53"/>
+      <c r="R107" s="56"/>
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="52"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="62"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="55"/>
       <c r="D108" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5190,13 +5172,13 @@
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
-      <c r="Q108" s="64"/>
-      <c r="R108" s="66"/>
+      <c r="Q108" s="53"/>
+      <c r="R108" s="56"/>
     </row>
     <row r="109" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="52"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="62"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="55"/>
       <c r="D109" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5225,29 +5207,29 @@
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
-      <c r="Q109" s="65"/>
-      <c r="R109" s="66"/>
-    </row>
-    <row r="110" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="52"/>
-      <c r="B110" s="63">
+      <c r="Q109" s="54"/>
+      <c r="R109" s="56"/>
+    </row>
+    <row r="110" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A110" s="58"/>
+      <c r="B110" s="52">
         <v>3.3</v>
       </c>
-      <c r="C110" s="56" t="s">
-        <v>41</v>
+      <c r="C110" s="57" t="s">
+        <v>37</v>
       </c>
       <c r="D110" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="8" t="str">
@@ -5267,30 +5249,28 @@
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="N110" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
-      <c r="Q110" s="63"/>
-      <c r="R110" s="66"/>
-    </row>
-    <row r="111" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="52"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="56"/>
+      <c r="Q110" s="52"/>
+      <c r="R110" s="56"/>
+    </row>
+    <row r="111" spans="1:18" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="58"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="57"/>
       <c r="D111" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="8" t="str">
@@ -5313,32 +5293,30 @@
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
-      <c r="Q111" s="64"/>
-      <c r="R111" s="66"/>
+      <c r="Q111" s="53"/>
+      <c r="R111" s="56"/>
     </row>
     <row r="112" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="52"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="56"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="57"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H112" s="4"/>
       <c r="I112" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>I</v>
+        <v>-</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="7" t="str">
@@ -5356,28 +5334,24 @@
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
-      <c r="Q112" s="64"/>
-      <c r="R112" s="66"/>
-    </row>
-    <row r="113" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="52"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="56"/>
+      <c r="Q112" s="53"/>
+      <c r="R112" s="56"/>
+    </row>
+    <row r="113" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="58"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="57"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="G113" s="10"/>
+      <c r="H113" s="4"/>
       <c r="I113" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>I</v>
+        <v>-</v>
       </c>
       <c r="J113" s="8"/>
       <c r="K113" s="7" t="str">
@@ -5395,13 +5369,13 @@
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
-      <c r="Q113" s="64"/>
-      <c r="R113" s="66"/>
+      <c r="Q113" s="53"/>
+      <c r="R113" s="56"/>
     </row>
     <row r="114" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="52"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="56"/>
+      <c r="A114" s="58"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="57"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5430,13 +5404,13 @@
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
-      <c r="Q114" s="64"/>
-      <c r="R114" s="66"/>
+      <c r="Q114" s="53"/>
+      <c r="R114" s="56"/>
     </row>
     <row r="115" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="52"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="56"/>
+      <c r="A115" s="58"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="57"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5465,13 +5439,13 @@
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
-      <c r="Q115" s="64"/>
-      <c r="R115" s="66"/>
+      <c r="Q115" s="53"/>
+      <c r="R115" s="56"/>
     </row>
     <row r="116" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="52"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="56"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="57"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5500,13 +5474,13 @@
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
-      <c r="Q116" s="64"/>
-      <c r="R116" s="66"/>
+      <c r="Q116" s="53"/>
+      <c r="R116" s="56"/>
     </row>
     <row r="117" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="52"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="56"/>
+      <c r="A117" s="58"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="57"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5535,13 +5509,13 @@
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
-      <c r="Q117" s="64"/>
-      <c r="R117" s="66"/>
+      <c r="Q117" s="53"/>
+      <c r="R117" s="56"/>
     </row>
     <row r="118" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="52"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="56"/>
+      <c r="A118" s="58"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5570,13 +5544,13 @@
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
-      <c r="Q118" s="64"/>
-      <c r="R118" s="66"/>
+      <c r="Q118" s="53"/>
+      <c r="R118" s="56"/>
     </row>
     <row r="119" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="52"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="56"/>
+      <c r="A119" s="58"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="57"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5605,13 +5579,13 @@
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
-      <c r="Q119" s="64"/>
-      <c r="R119" s="66"/>
+      <c r="Q119" s="53"/>
+      <c r="R119" s="56"/>
     </row>
     <row r="120" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="52"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="56"/>
+      <c r="A120" s="58"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5640,13 +5614,13 @@
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
-      <c r="Q120" s="64"/>
-      <c r="R120" s="66"/>
+      <c r="Q120" s="53"/>
+      <c r="R120" s="56"/>
     </row>
     <row r="121" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="52"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="56"/>
+      <c r="A121" s="58"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="57"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5675,13 +5649,13 @@
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
-      <c r="Q121" s="64"/>
-      <c r="R121" s="66"/>
+      <c r="Q121" s="53"/>
+      <c r="R121" s="56"/>
     </row>
     <row r="122" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="52"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="56"/>
+      <c r="A122" s="58"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="57"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5710,13 +5684,13 @@
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
-      <c r="Q122" s="64"/>
-      <c r="R122" s="66"/>
+      <c r="Q122" s="53"/>
+      <c r="R122" s="56"/>
     </row>
     <row r="123" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="52"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="56"/>
+      <c r="A123" s="58"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="57"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5745,13 +5719,13 @@
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
-      <c r="Q123" s="64"/>
-      <c r="R123" s="66"/>
+      <c r="Q123" s="53"/>
+      <c r="R123" s="56"/>
     </row>
     <row r="124" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="52"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="56"/>
+      <c r="A124" s="58"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="57"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5780,29 +5754,29 @@
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
-      <c r="Q124" s="65"/>
-      <c r="R124" s="66"/>
-    </row>
-    <row r="125" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
-      <c r="B125" s="66">
+      <c r="Q124" s="54"/>
+      <c r="R124" s="56"/>
+    </row>
+    <row r="125" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="58"/>
+      <c r="B125" s="56">
         <v>3.4</v>
       </c>
-      <c r="C125" s="56" t="s">
-        <v>43</v>
+      <c r="C125" s="57" t="s">
+        <v>38</v>
       </c>
       <c r="D125" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="8" t="str">
@@ -5822,37 +5796,33 @@
         <f t="shared" si="6"/>
         <v>X</v>
       </c>
-      <c r="N125" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="N125" s="10"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
-      <c r="Q125" s="63"/>
-      <c r="R125" s="66"/>
-    </row>
-    <row r="126" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="52"/>
-      <c r="B126" s="66"/>
-      <c r="C126" s="56"/>
+      <c r="Q125" s="52"/>
+      <c r="R125" s="56"/>
+    </row>
+    <row r="126" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A126" s="58"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="57"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H126" s="7"/>
       <c r="I126" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J126" s="8"/>
       <c r="K126" s="7" t="str">
@@ -5870,22 +5840,26 @@
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
-      <c r="Q126" s="64"/>
-      <c r="R126" s="66"/>
-    </row>
-    <row r="127" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="52"/>
-      <c r="B127" s="66"/>
-      <c r="C127" s="56"/>
+      <c r="Q126" s="53"/>
+      <c r="R126" s="56"/>
+    </row>
+    <row r="127" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="58"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="57"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="E127" s="9"/>
+        <v>OK</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="F127" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G127" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="H127" s="7"/>
       <c r="I127" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5894,36 +5868,38 @@
       <c r="J127" s="8"/>
       <c r="K127" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L127" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M127" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
-      <c r="Q127" s="64"/>
-      <c r="R127" s="66"/>
-    </row>
-    <row r="128" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="52"/>
-      <c r="B128" s="66"/>
-      <c r="C128" s="56"/>
+      <c r="Q127" s="53"/>
+      <c r="R127" s="56"/>
+    </row>
+    <row r="128" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="58"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="57"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="E128" s="9"/>
+        <v>OK</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F128" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="8" t="str">
@@ -5933,33 +5909,39 @@
       <c r="J128" s="8"/>
       <c r="K128" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L128" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M128" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
-      <c r="Q128" s="64"/>
-      <c r="R128" s="66"/>
-    </row>
-    <row r="129" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
-      <c r="B129" s="66"/>
-      <c r="C129" s="56"/>
+      <c r="Q128" s="53"/>
+      <c r="R128" s="56"/>
+    </row>
+    <row r="129" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="58"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="57"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="H129" s="7"/>
       <c r="I129" s="8" t="str">
         <f t="shared" si="5"/>
@@ -5968,26 +5950,26 @@
       <c r="J129" s="8"/>
       <c r="K129" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L129" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M129" s="7" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
-      <c r="Q129" s="64"/>
-      <c r="R129" s="66"/>
+      <c r="Q129" s="53"/>
+      <c r="R129" s="56"/>
     </row>
     <row r="130" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="52"/>
-      <c r="B130" s="66"/>
-      <c r="C130" s="56"/>
+      <c r="A130" s="58"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="57"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -6016,13 +5998,13 @@
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
-      <c r="Q130" s="64"/>
-      <c r="R130" s="66"/>
+      <c r="Q130" s="53"/>
+      <c r="R130" s="56"/>
     </row>
     <row r="131" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="52"/>
-      <c r="B131" s="66"/>
-      <c r="C131" s="56"/>
+      <c r="A131" s="58"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="57"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -6051,13 +6033,13 @@
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
-      <c r="Q131" s="64"/>
-      <c r="R131" s="66"/>
+      <c r="Q131" s="53"/>
+      <c r="R131" s="56"/>
     </row>
     <row r="132" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="52"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="56"/>
+      <c r="A132" s="58"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -6086,13 +6068,13 @@
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
-      <c r="Q132" s="64"/>
-      <c r="R132" s="66"/>
+      <c r="Q132" s="53"/>
+      <c r="R132" s="56"/>
     </row>
     <row r="133" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="52"/>
-      <c r="B133" s="66"/>
-      <c r="C133" s="56"/>
+      <c r="A133" s="58"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="57"/>
       <c r="D133" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -6121,13 +6103,13 @@
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
-      <c r="Q133" s="64"/>
-      <c r="R133" s="66"/>
+      <c r="Q133" s="53"/>
+      <c r="R133" s="56"/>
     </row>
     <row r="134" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="52"/>
-      <c r="B134" s="66"/>
-      <c r="C134" s="56"/>
+      <c r="A134" s="58"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="57"/>
       <c r="D134" s="4" t="str">
         <f t="shared" ref="D134:D197" si="7">IF(LEN(E134)&gt;5,IF(LEN(K134&amp;L134&amp;M134)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -6156,13 +6138,13 @@
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
-      <c r="Q134" s="64"/>
-      <c r="R134" s="66"/>
+      <c r="Q134" s="53"/>
+      <c r="R134" s="56"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="52"/>
-      <c r="B135" s="66"/>
-      <c r="C135" s="56"/>
+      <c r="A135" s="58"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="57"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6191,13 +6173,13 @@
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
-      <c r="Q135" s="64"/>
-      <c r="R135" s="66"/>
+      <c r="Q135" s="53"/>
+      <c r="R135" s="56"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="52"/>
-      <c r="B136" s="66"/>
-      <c r="C136" s="56"/>
+      <c r="A136" s="58"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="57"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6226,13 +6208,13 @@
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
-      <c r="Q136" s="64"/>
-      <c r="R136" s="66"/>
+      <c r="Q136" s="53"/>
+      <c r="R136" s="56"/>
     </row>
     <row r="137" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="52"/>
-      <c r="B137" s="66"/>
-      <c r="C137" s="56"/>
+      <c r="A137" s="58"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="57"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6261,13 +6243,13 @@
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
-      <c r="Q137" s="64"/>
-      <c r="R137" s="66"/>
+      <c r="Q137" s="53"/>
+      <c r="R137" s="56"/>
     </row>
     <row r="138" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="52"/>
-      <c r="B138" s="66"/>
-      <c r="C138" s="56"/>
+      <c r="A138" s="58"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="57"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6296,13 +6278,13 @@
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
-      <c r="Q138" s="64"/>
-      <c r="R138" s="66"/>
+      <c r="Q138" s="53"/>
+      <c r="R138" s="56"/>
     </row>
     <row r="139" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="52"/>
-      <c r="B139" s="66"/>
-      <c r="C139" s="56"/>
+      <c r="A139" s="58"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="57"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6331,36 +6313,34 @@
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
-      <c r="Q139" s="65"/>
-      <c r="R139" s="66"/>
+      <c r="Q139" s="54"/>
+      <c r="R139" s="56"/>
     </row>
     <row r="140" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="52"/>
-      <c r="B140" s="66">
+      <c r="A140" s="58"/>
+      <c r="B140" s="56">
         <v>3.5</v>
       </c>
-      <c r="C140" s="56" t="s">
-        <v>46</v>
+      <c r="C140" s="57" t="s">
+        <v>41</v>
       </c>
       <c r="D140" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H140" s="7"/>
       <c r="I140" s="8" t="str">
         <f t="shared" si="8"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J140" s="8"/>
       <c r="K140" s="7" t="str">
@@ -6375,30 +6355,28 @@
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="N140" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
-      <c r="Q140" s="63"/>
-      <c r="R140" s="66"/>
+      <c r="Q140" s="52"/>
+      <c r="R140" s="56"/>
     </row>
     <row r="141" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="52"/>
-      <c r="B141" s="66"/>
-      <c r="C141" s="56"/>
+      <c r="A141" s="58"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="57"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="8" t="str">
@@ -6421,25 +6399,25 @@
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
-      <c r="Q141" s="64"/>
-      <c r="R141" s="66"/>
+      <c r="Q141" s="53"/>
+      <c r="R141" s="56"/>
     </row>
     <row r="142" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="52"/>
-      <c r="B142" s="66"/>
-      <c r="C142" s="56"/>
+      <c r="A142" s="58"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="57"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="8" t="str">
@@ -6462,23 +6440,25 @@
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
-      <c r="Q142" s="64"/>
-      <c r="R142" s="66"/>
-    </row>
-    <row r="143" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="52"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="56"/>
+      <c r="Q142" s="53"/>
+      <c r="R142" s="56"/>
+    </row>
+    <row r="143" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A143" s="58"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="57"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="E143" s="9"/>
+        <v>OK</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="F143" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="8" t="str">
@@ -6488,26 +6468,26 @@
       <c r="J143" s="8"/>
       <c r="K143" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L143" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M143" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
-      <c r="Q143" s="64"/>
-      <c r="R143" s="66"/>
+      <c r="Q143" s="53"/>
+      <c r="R143" s="56"/>
     </row>
     <row r="144" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="52"/>
-      <c r="B144" s="66"/>
-      <c r="C144" s="56"/>
+      <c r="A144" s="58"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="57"/>
       <c r="D144" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6536,13 +6516,13 @@
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
-      <c r="Q144" s="64"/>
-      <c r="R144" s="66"/>
+      <c r="Q144" s="53"/>
+      <c r="R144" s="56"/>
     </row>
     <row r="145" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="52"/>
-      <c r="B145" s="66"/>
-      <c r="C145" s="56"/>
+      <c r="A145" s="58"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="57"/>
       <c r="D145" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6571,13 +6551,13 @@
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
-      <c r="Q145" s="64"/>
-      <c r="R145" s="66"/>
+      <c r="Q145" s="53"/>
+      <c r="R145" s="56"/>
     </row>
     <row r="146" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="52"/>
-      <c r="B146" s="66"/>
-      <c r="C146" s="56"/>
+      <c r="A146" s="58"/>
+      <c r="B146" s="56"/>
+      <c r="C146" s="57"/>
       <c r="D146" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6606,13 +6586,13 @@
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
-      <c r="Q146" s="64"/>
-      <c r="R146" s="66"/>
+      <c r="Q146" s="53"/>
+      <c r="R146" s="56"/>
     </row>
     <row r="147" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="52"/>
-      <c r="B147" s="66"/>
-      <c r="C147" s="56"/>
+      <c r="A147" s="58"/>
+      <c r="B147" s="56"/>
+      <c r="C147" s="57"/>
       <c r="D147" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6641,13 +6621,13 @@
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
-      <c r="Q147" s="64"/>
-      <c r="R147" s="66"/>
+      <c r="Q147" s="53"/>
+      <c r="R147" s="56"/>
     </row>
     <row r="148" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="52"/>
-      <c r="B148" s="66"/>
-      <c r="C148" s="56"/>
+      <c r="A148" s="58"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="57"/>
       <c r="D148" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6676,13 +6656,13 @@
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
-      <c r="Q148" s="64"/>
-      <c r="R148" s="66"/>
+      <c r="Q148" s="53"/>
+      <c r="R148" s="56"/>
     </row>
     <row r="149" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="52"/>
-      <c r="B149" s="66"/>
-      <c r="C149" s="56"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="57"/>
       <c r="D149" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6711,13 +6691,13 @@
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
-      <c r="Q149" s="64"/>
-      <c r="R149" s="66"/>
+      <c r="Q149" s="53"/>
+      <c r="R149" s="56"/>
     </row>
     <row r="150" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="52"/>
-      <c r="B150" s="66"/>
-      <c r="C150" s="56"/>
+      <c r="A150" s="58"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="57"/>
       <c r="D150" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6746,13 +6726,13 @@
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
-      <c r="Q150" s="64"/>
-      <c r="R150" s="66"/>
+      <c r="Q150" s="53"/>
+      <c r="R150" s="56"/>
     </row>
     <row r="151" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="52"/>
-      <c r="B151" s="66"/>
-      <c r="C151" s="56"/>
+      <c r="A151" s="58"/>
+      <c r="B151" s="56"/>
+      <c r="C151" s="57"/>
       <c r="D151" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6781,13 +6761,13 @@
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
-      <c r="Q151" s="64"/>
-      <c r="R151" s="66"/>
+      <c r="Q151" s="53"/>
+      <c r="R151" s="56"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="52"/>
-      <c r="B152" s="66"/>
-      <c r="C152" s="56"/>
+      <c r="A152" s="58"/>
+      <c r="B152" s="56"/>
+      <c r="C152" s="57"/>
       <c r="D152" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6816,13 +6796,13 @@
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
-      <c r="Q152" s="64"/>
-      <c r="R152" s="66"/>
+      <c r="Q152" s="53"/>
+      <c r="R152" s="56"/>
     </row>
     <row r="153" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="52"/>
-      <c r="B153" s="66"/>
-      <c r="C153" s="56"/>
+      <c r="A153" s="58"/>
+      <c r="B153" s="56"/>
+      <c r="C153" s="57"/>
       <c r="D153" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6851,13 +6831,13 @@
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
-      <c r="Q153" s="64"/>
-      <c r="R153" s="66"/>
+      <c r="Q153" s="53"/>
+      <c r="R153" s="56"/>
     </row>
     <row r="154" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="52"/>
-      <c r="B154" s="66"/>
-      <c r="C154" s="56"/>
+      <c r="A154" s="58"/>
+      <c r="B154" s="56"/>
+      <c r="C154" s="57"/>
       <c r="D154" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6886,36 +6866,34 @@
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
-      <c r="Q154" s="65"/>
-      <c r="R154" s="66"/>
+      <c r="Q154" s="54"/>
+      <c r="R154" s="56"/>
     </row>
     <row r="155" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A155" s="52"/>
-      <c r="B155" s="64">
+      <c r="A155" s="58"/>
+      <c r="B155" s="53">
         <v>3.6</v>
       </c>
-      <c r="C155" s="56" t="s">
-        <v>49</v>
+      <c r="C155" s="57" t="s">
+        <v>44</v>
       </c>
       <c r="D155" s="12" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H155" s="4"/>
       <c r="I155" s="8" t="str">
         <f t="shared" si="8"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J155" s="8"/>
       <c r="K155" s="7" t="str">
@@ -6930,30 +6908,28 @@
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="N155" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
-      <c r="Q155" s="63"/>
-      <c r="R155" s="66"/>
+      <c r="Q155" s="52"/>
+      <c r="R155" s="56"/>
     </row>
     <row r="156" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="52"/>
-      <c r="B156" s="64"/>
-      <c r="C156" s="56"/>
+      <c r="A156" s="58"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="57"/>
       <c r="D156" s="4" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H156" s="4"/>
       <c r="I156" s="8" t="str">
@@ -6976,23 +6952,25 @@
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
-      <c r="Q156" s="64"/>
-      <c r="R156" s="66"/>
-    </row>
-    <row r="157" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A157" s="52"/>
-      <c r="B157" s="64"/>
-      <c r="C157" s="56"/>
+      <c r="Q156" s="53"/>
+      <c r="R156" s="56"/>
+    </row>
+    <row r="157" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="58"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="57"/>
       <c r="D157" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="E157" s="9"/>
-      <c r="F157" s="13" t="s">
-        <v>72</v>
+        <v>OK</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H157" s="4"/>
       <c r="I157" s="8" t="str">
@@ -7002,26 +6980,26 @@
       <c r="J157" s="8"/>
       <c r="K157" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L157" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M157" s="7" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
-      <c r="Q157" s="64"/>
-      <c r="R157" s="66"/>
+      <c r="Q157" s="53"/>
+      <c r="R157" s="56"/>
     </row>
     <row r="158" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="52"/>
-      <c r="B158" s="64"/>
-      <c r="C158" s="56"/>
+      <c r="A158" s="58"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="57"/>
       <c r="D158" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7050,13 +7028,13 @@
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
-      <c r="Q158" s="64"/>
-      <c r="R158" s="66"/>
+      <c r="Q158" s="53"/>
+      <c r="R158" s="56"/>
     </row>
     <row r="159" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="52"/>
-      <c r="B159" s="64"/>
-      <c r="C159" s="56"/>
+      <c r="A159" s="58"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="57"/>
       <c r="D159" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7085,13 +7063,13 @@
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
-      <c r="Q159" s="64"/>
-      <c r="R159" s="66"/>
+      <c r="Q159" s="53"/>
+      <c r="R159" s="56"/>
     </row>
     <row r="160" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="52"/>
-      <c r="B160" s="64"/>
-      <c r="C160" s="56"/>
+      <c r="A160" s="58"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="57"/>
       <c r="D160" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7120,13 +7098,13 @@
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
-      <c r="Q160" s="64"/>
-      <c r="R160" s="66"/>
+      <c r="Q160" s="53"/>
+      <c r="R160" s="56"/>
     </row>
     <row r="161" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="52"/>
-      <c r="B161" s="64"/>
-      <c r="C161" s="56"/>
+      <c r="A161" s="58"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="57"/>
       <c r="D161" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7155,13 +7133,13 @@
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
-      <c r="Q161" s="64"/>
-      <c r="R161" s="66"/>
+      <c r="Q161" s="53"/>
+      <c r="R161" s="56"/>
     </row>
     <row r="162" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="52"/>
-      <c r="B162" s="64"/>
-      <c r="C162" s="56"/>
+      <c r="A162" s="58"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="57"/>
       <c r="D162" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7190,13 +7168,13 @@
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
-      <c r="Q162" s="64"/>
-      <c r="R162" s="66"/>
+      <c r="Q162" s="53"/>
+      <c r="R162" s="56"/>
     </row>
     <row r="163" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="52"/>
-      <c r="B163" s="64"/>
-      <c r="C163" s="56"/>
+      <c r="A163" s="58"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="57"/>
       <c r="D163" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7225,13 +7203,13 @@
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
-      <c r="Q163" s="64"/>
-      <c r="R163" s="66"/>
+      <c r="Q163" s="53"/>
+      <c r="R163" s="56"/>
     </row>
     <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="52"/>
-      <c r="B164" s="64"/>
-      <c r="C164" s="56"/>
+      <c r="A164" s="58"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="57"/>
       <c r="D164" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7260,13 +7238,13 @@
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
-      <c r="Q164" s="64"/>
-      <c r="R164" s="66"/>
+      <c r="Q164" s="53"/>
+      <c r="R164" s="56"/>
     </row>
     <row r="165" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="52"/>
-      <c r="B165" s="64"/>
-      <c r="C165" s="56"/>
+      <c r="A165" s="58"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="57"/>
       <c r="D165" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7295,13 +7273,13 @@
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
-      <c r="Q165" s="64"/>
-      <c r="R165" s="66"/>
+      <c r="Q165" s="53"/>
+      <c r="R165" s="56"/>
     </row>
     <row r="166" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="52"/>
-      <c r="B166" s="64"/>
-      <c r="C166" s="56"/>
+      <c r="A166" s="58"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="57"/>
       <c r="D166" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7330,13 +7308,13 @@
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
-      <c r="Q166" s="64"/>
-      <c r="R166" s="66"/>
+      <c r="Q166" s="53"/>
+      <c r="R166" s="56"/>
     </row>
     <row r="167" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="52"/>
-      <c r="B167" s="64"/>
-      <c r="C167" s="56"/>
+      <c r="A167" s="58"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="57"/>
       <c r="D167" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7365,13 +7343,13 @@
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
-      <c r="Q167" s="64"/>
-      <c r="R167" s="66"/>
+      <c r="Q167" s="53"/>
+      <c r="R167" s="56"/>
     </row>
     <row r="168" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="52"/>
-      <c r="B168" s="64"/>
-      <c r="C168" s="56"/>
+      <c r="A168" s="58"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="57"/>
       <c r="D168" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7400,13 +7378,13 @@
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
-      <c r="Q168" s="64"/>
-      <c r="R168" s="66"/>
+      <c r="Q168" s="53"/>
+      <c r="R168" s="56"/>
     </row>
     <row r="169" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="52"/>
-      <c r="B169" s="65"/>
-      <c r="C169" s="56"/>
+      <c r="A169" s="58"/>
+      <c r="B169" s="54"/>
+      <c r="C169" s="57"/>
       <c r="D169" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7435,13 +7413,13 @@
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
-      <c r="Q169" s="65"/>
-      <c r="R169" s="66"/>
+      <c r="Q169" s="54"/>
+      <c r="R169" s="56"/>
     </row>
     <row r="170" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="18"/>
-      <c r="B170" s="63"/>
-      <c r="C170" s="62"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="55"/>
       <c r="D170" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7470,13 +7448,13 @@
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
-      <c r="Q170" s="63"/>
-      <c r="R170" s="66"/>
+      <c r="Q170" s="52"/>
+      <c r="R170" s="56"/>
     </row>
     <row r="171" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="18"/>
-      <c r="B171" s="64"/>
-      <c r="C171" s="62"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="55"/>
       <c r="D171" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7505,13 +7483,13 @@
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
-      <c r="Q171" s="64"/>
-      <c r="R171" s="66"/>
+      <c r="Q171" s="53"/>
+      <c r="R171" s="56"/>
     </row>
     <row r="172" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="18"/>
-      <c r="B172" s="64"/>
-      <c r="C172" s="62"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="55"/>
       <c r="D172" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7540,13 +7518,13 @@
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
-      <c r="Q172" s="64"/>
-      <c r="R172" s="66"/>
+      <c r="Q172" s="53"/>
+      <c r="R172" s="56"/>
     </row>
     <row r="173" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="18"/>
-      <c r="B173" s="64"/>
-      <c r="C173" s="62"/>
+      <c r="B173" s="53"/>
+      <c r="C173" s="55"/>
       <c r="D173" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7575,13 +7553,13 @@
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
-      <c r="Q173" s="64"/>
-      <c r="R173" s="66"/>
+      <c r="Q173" s="53"/>
+      <c r="R173" s="56"/>
     </row>
     <row r="174" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="18"/>
-      <c r="B174" s="64"/>
-      <c r="C174" s="62"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="55"/>
       <c r="D174" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7610,13 +7588,13 @@
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
-      <c r="Q174" s="64"/>
-      <c r="R174" s="66"/>
+      <c r="Q174" s="53"/>
+      <c r="R174" s="56"/>
     </row>
     <row r="175" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="18"/>
-      <c r="B175" s="64"/>
-      <c r="C175" s="62"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="55"/>
       <c r="D175" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7645,13 +7623,13 @@
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
-      <c r="Q175" s="64"/>
-      <c r="R175" s="66"/>
+      <c r="Q175" s="53"/>
+      <c r="R175" s="56"/>
     </row>
     <row r="176" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="18"/>
-      <c r="B176" s="64"/>
-      <c r="C176" s="62"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="55"/>
       <c r="D176" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7680,13 +7658,13 @@
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
-      <c r="Q176" s="64"/>
-      <c r="R176" s="66"/>
+      <c r="Q176" s="53"/>
+      <c r="R176" s="56"/>
     </row>
     <row r="177" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="18"/>
-      <c r="B177" s="64"/>
-      <c r="C177" s="62"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="55"/>
       <c r="D177" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7715,13 +7693,13 @@
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
-      <c r="Q177" s="64"/>
-      <c r="R177" s="66"/>
+      <c r="Q177" s="53"/>
+      <c r="R177" s="56"/>
     </row>
     <row r="178" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
-      <c r="B178" s="64"/>
-      <c r="C178" s="62"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="55"/>
       <c r="D178" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7750,13 +7728,13 @@
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
-      <c r="Q178" s="64"/>
-      <c r="R178" s="66"/>
+      <c r="Q178" s="53"/>
+      <c r="R178" s="56"/>
     </row>
     <row r="179" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="18"/>
-      <c r="B179" s="64"/>
-      <c r="C179" s="62"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="55"/>
       <c r="D179" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7785,13 +7763,13 @@
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
-      <c r="Q179" s="64"/>
-      <c r="R179" s="66"/>
+      <c r="Q179" s="53"/>
+      <c r="R179" s="56"/>
     </row>
     <row r="180" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="18"/>
-      <c r="B180" s="64"/>
-      <c r="C180" s="62"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="55"/>
       <c r="D180" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7820,13 +7798,13 @@
       <c r="N180" s="10"/>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
-      <c r="Q180" s="64"/>
-      <c r="R180" s="66"/>
+      <c r="Q180" s="53"/>
+      <c r="R180" s="56"/>
     </row>
     <row r="181" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="18"/>
-      <c r="B181" s="64"/>
-      <c r="C181" s="62"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="55"/>
       <c r="D181" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7855,13 +7833,13 @@
       <c r="N181" s="10"/>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
-      <c r="Q181" s="64"/>
-      <c r="R181" s="66"/>
+      <c r="Q181" s="53"/>
+      <c r="R181" s="56"/>
     </row>
     <row r="182" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="18"/>
-      <c r="B182" s="64"/>
-      <c r="C182" s="62"/>
+      <c r="B182" s="53"/>
+      <c r="C182" s="55"/>
       <c r="D182" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7890,13 +7868,13 @@
       <c r="N182" s="10"/>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
-      <c r="Q182" s="64"/>
-      <c r="R182" s="66"/>
+      <c r="Q182" s="53"/>
+      <c r="R182" s="56"/>
     </row>
     <row r="183" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
-      <c r="B183" s="64"/>
-      <c r="C183" s="62"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="55"/>
       <c r="D183" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7925,13 +7903,13 @@
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
-      <c r="Q183" s="64"/>
-      <c r="R183" s="66"/>
+      <c r="Q183" s="53"/>
+      <c r="R183" s="56"/>
     </row>
     <row r="184" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="18"/>
-      <c r="B184" s="65"/>
-      <c r="C184" s="62"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="55"/>
       <c r="D184" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7960,13 +7938,13 @@
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
-      <c r="Q184" s="65"/>
-      <c r="R184" s="66"/>
+      <c r="Q184" s="54"/>
+      <c r="R184" s="56"/>
     </row>
     <row r="185" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
-      <c r="B185" s="63"/>
-      <c r="C185" s="62"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="55"/>
       <c r="D185" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7995,13 +7973,13 @@
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
-      <c r="Q185" s="63"/>
-      <c r="R185" s="66"/>
+      <c r="Q185" s="52"/>
+      <c r="R185" s="56"/>
     </row>
     <row r="186" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
-      <c r="B186" s="64"/>
-      <c r="C186" s="62"/>
+      <c r="B186" s="53"/>
+      <c r="C186" s="55"/>
       <c r="D186" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8030,13 +8008,13 @@
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
-      <c r="Q186" s="64"/>
-      <c r="R186" s="66"/>
+      <c r="Q186" s="53"/>
+      <c r="R186" s="56"/>
     </row>
     <row r="187" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
-      <c r="B187" s="64"/>
-      <c r="C187" s="62"/>
+      <c r="B187" s="53"/>
+      <c r="C187" s="55"/>
       <c r="D187" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8065,13 +8043,13 @@
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
-      <c r="Q187" s="64"/>
-      <c r="R187" s="66"/>
+      <c r="Q187" s="53"/>
+      <c r="R187" s="56"/>
     </row>
     <row r="188" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
-      <c r="B188" s="64"/>
-      <c r="C188" s="62"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="55"/>
       <c r="D188" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8100,13 +8078,13 @@
       <c r="N188" s="10"/>
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
-      <c r="Q188" s="64"/>
-      <c r="R188" s="66"/>
+      <c r="Q188" s="53"/>
+      <c r="R188" s="56"/>
     </row>
     <row r="189" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="18"/>
-      <c r="B189" s="64"/>
-      <c r="C189" s="62"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="55"/>
       <c r="D189" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8135,13 +8113,13 @@
       <c r="N189" s="10"/>
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
-      <c r="Q189" s="64"/>
-      <c r="R189" s="66"/>
+      <c r="Q189" s="53"/>
+      <c r="R189" s="56"/>
     </row>
     <row r="190" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
-      <c r="B190" s="64"/>
-      <c r="C190" s="62"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="55"/>
       <c r="D190" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8170,13 +8148,13 @@
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
-      <c r="Q190" s="64"/>
-      <c r="R190" s="66"/>
+      <c r="Q190" s="53"/>
+      <c r="R190" s="56"/>
     </row>
     <row r="191" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="18"/>
-      <c r="B191" s="64"/>
-      <c r="C191" s="62"/>
+      <c r="B191" s="53"/>
+      <c r="C191" s="55"/>
       <c r="D191" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8205,13 +8183,13 @@
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
-      <c r="Q191" s="64"/>
-      <c r="R191" s="66"/>
+      <c r="Q191" s="53"/>
+      <c r="R191" s="56"/>
     </row>
     <row r="192" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="18"/>
-      <c r="B192" s="64"/>
-      <c r="C192" s="62"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="55"/>
       <c r="D192" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8240,13 +8218,13 @@
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
-      <c r="Q192" s="64"/>
-      <c r="R192" s="66"/>
+      <c r="Q192" s="53"/>
+      <c r="R192" s="56"/>
     </row>
     <row r="193" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
-      <c r="B193" s="64"/>
-      <c r="C193" s="62"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="55"/>
       <c r="D193" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8275,13 +8253,13 @@
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
-      <c r="Q193" s="64"/>
-      <c r="R193" s="66"/>
+      <c r="Q193" s="53"/>
+      <c r="R193" s="56"/>
     </row>
     <row r="194" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
-      <c r="B194" s="64"/>
-      <c r="C194" s="62"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="55"/>
       <c r="D194" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8291,7 +8269,7 @@
       <c r="G194" s="10"/>
       <c r="H194" s="7"/>
       <c r="I194" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J194" s="8"/>
       <c r="K194" s="7" t="str">
@@ -8309,13 +8287,13 @@
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
-      <c r="Q194" s="64"/>
-      <c r="R194" s="66"/>
+      <c r="Q194" s="53"/>
+      <c r="R194" s="56"/>
     </row>
     <row r="195" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="18"/>
-      <c r="B195" s="64"/>
-      <c r="C195" s="62"/>
+      <c r="B195" s="53"/>
+      <c r="C195" s="55"/>
       <c r="D195" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8344,13 +8322,13 @@
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
-      <c r="Q195" s="64"/>
-      <c r="R195" s="66"/>
+      <c r="Q195" s="53"/>
+      <c r="R195" s="56"/>
     </row>
     <row r="196" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="18"/>
-      <c r="B196" s="64"/>
-      <c r="C196" s="62"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="55"/>
       <c r="D196" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8379,13 +8357,13 @@
       <c r="N196" s="10"/>
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
-      <c r="Q196" s="64"/>
-      <c r="R196" s="66"/>
+      <c r="Q196" s="53"/>
+      <c r="R196" s="56"/>
     </row>
     <row r="197" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="18"/>
-      <c r="B197" s="64"/>
-      <c r="C197" s="62"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="55"/>
       <c r="D197" s="4" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -8414,13 +8392,13 @@
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
-      <c r="Q197" s="64"/>
-      <c r="R197" s="66"/>
+      <c r="Q197" s="53"/>
+      <c r="R197" s="56"/>
     </row>
     <row r="198" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="18"/>
-      <c r="B198" s="64"/>
-      <c r="C198" s="62"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="55"/>
       <c r="D198" s="4" t="str">
         <f t="shared" ref="D198:D261" si="11">IF(LEN(E198)&gt;5,IF(LEN(K198&amp;L198&amp;M198)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -8449,13 +8427,13 @@
       <c r="N198" s="10"/>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
-      <c r="Q198" s="64"/>
-      <c r="R198" s="66"/>
+      <c r="Q198" s="53"/>
+      <c r="R198" s="56"/>
     </row>
     <row r="199" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="18"/>
-      <c r="B199" s="65"/>
-      <c r="C199" s="62"/>
+      <c r="B199" s="54"/>
+      <c r="C199" s="55"/>
       <c r="D199" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8484,13 +8462,13 @@
       <c r="N199" s="10"/>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
-      <c r="Q199" s="65"/>
-      <c r="R199" s="66"/>
+      <c r="Q199" s="54"/>
+      <c r="R199" s="56"/>
     </row>
     <row r="200" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="18"/>
-      <c r="B200" s="63"/>
-      <c r="C200" s="62"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="55"/>
       <c r="D200" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8519,13 +8497,13 @@
       <c r="N200" s="10"/>
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
-      <c r="Q200" s="63"/>
-      <c r="R200" s="66"/>
+      <c r="Q200" s="52"/>
+      <c r="R200" s="56"/>
     </row>
     <row r="201" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="18"/>
-      <c r="B201" s="64"/>
-      <c r="C201" s="62"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="55"/>
       <c r="D201" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8554,13 +8532,13 @@
       <c r="N201" s="10"/>
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
-      <c r="Q201" s="64"/>
-      <c r="R201" s="66"/>
+      <c r="Q201" s="53"/>
+      <c r="R201" s="56"/>
     </row>
     <row r="202" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="18"/>
-      <c r="B202" s="64"/>
-      <c r="C202" s="62"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="55"/>
       <c r="D202" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8589,13 +8567,13 @@
       <c r="N202" s="10"/>
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
-      <c r="Q202" s="64"/>
-      <c r="R202" s="66"/>
+      <c r="Q202" s="53"/>
+      <c r="R202" s="56"/>
     </row>
     <row r="203" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="18"/>
-      <c r="B203" s="64"/>
-      <c r="C203" s="62"/>
+      <c r="B203" s="53"/>
+      <c r="C203" s="55"/>
       <c r="D203" s="27" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8624,13 +8602,13 @@
       <c r="N203" s="10"/>
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
-      <c r="Q203" s="64"/>
-      <c r="R203" s="66"/>
+      <c r="Q203" s="53"/>
+      <c r="R203" s="56"/>
     </row>
     <row r="204" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="18"/>
-      <c r="B204" s="64"/>
-      <c r="C204" s="62"/>
+      <c r="B204" s="53"/>
+      <c r="C204" s="55"/>
       <c r="D204" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8659,13 +8637,13 @@
       <c r="N204" s="10"/>
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
-      <c r="Q204" s="64"/>
-      <c r="R204" s="66"/>
+      <c r="Q204" s="53"/>
+      <c r="R204" s="56"/>
     </row>
     <row r="205" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="18"/>
-      <c r="B205" s="64"/>
-      <c r="C205" s="62"/>
+      <c r="B205" s="53"/>
+      <c r="C205" s="55"/>
       <c r="D205" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8694,13 +8672,13 @@
       <c r="N205" s="10"/>
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
-      <c r="Q205" s="64"/>
-      <c r="R205" s="66"/>
+      <c r="Q205" s="53"/>
+      <c r="R205" s="56"/>
     </row>
     <row r="206" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="18"/>
-      <c r="B206" s="64"/>
-      <c r="C206" s="62"/>
+      <c r="B206" s="53"/>
+      <c r="C206" s="55"/>
       <c r="D206" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8729,13 +8707,13 @@
       <c r="N206" s="10"/>
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
-      <c r="Q206" s="64"/>
-      <c r="R206" s="66"/>
+      <c r="Q206" s="53"/>
+      <c r="R206" s="56"/>
     </row>
     <row r="207" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="18"/>
-      <c r="B207" s="64"/>
-      <c r="C207" s="62"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="55"/>
       <c r="D207" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8764,13 +8742,13 @@
       <c r="N207" s="10"/>
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
-      <c r="Q207" s="64"/>
-      <c r="R207" s="66"/>
+      <c r="Q207" s="53"/>
+      <c r="R207" s="56"/>
     </row>
     <row r="208" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="18"/>
-      <c r="B208" s="64"/>
-      <c r="C208" s="62"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="55"/>
       <c r="D208" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8799,13 +8777,13 @@
       <c r="N208" s="10"/>
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
-      <c r="Q208" s="64"/>
-      <c r="R208" s="66"/>
+      <c r="Q208" s="53"/>
+      <c r="R208" s="56"/>
     </row>
     <row r="209" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="18"/>
-      <c r="B209" s="64"/>
-      <c r="C209" s="62"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="55"/>
       <c r="D209" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8834,13 +8812,13 @@
       <c r="N209" s="10"/>
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
-      <c r="Q209" s="64"/>
-      <c r="R209" s="66"/>
+      <c r="Q209" s="53"/>
+      <c r="R209" s="56"/>
     </row>
     <row r="210" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="18"/>
-      <c r="B210" s="64"/>
-      <c r="C210" s="62"/>
+      <c r="B210" s="53"/>
+      <c r="C210" s="55"/>
       <c r="D210" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8869,13 +8847,13 @@
       <c r="N210" s="10"/>
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
-      <c r="Q210" s="64"/>
-      <c r="R210" s="66"/>
+      <c r="Q210" s="53"/>
+      <c r="R210" s="56"/>
     </row>
     <row r="211" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="18"/>
-      <c r="B211" s="64"/>
-      <c r="C211" s="62"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="55"/>
       <c r="D211" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8904,13 +8882,13 @@
       <c r="N211" s="10"/>
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
-      <c r="Q211" s="64"/>
-      <c r="R211" s="66"/>
+      <c r="Q211" s="53"/>
+      <c r="R211" s="56"/>
     </row>
     <row r="212" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="18"/>
-      <c r="B212" s="64"/>
-      <c r="C212" s="62"/>
+      <c r="B212" s="53"/>
+      <c r="C212" s="55"/>
       <c r="D212" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8939,13 +8917,13 @@
       <c r="N212" s="10"/>
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
-      <c r="Q212" s="64"/>
-      <c r="R212" s="66"/>
+      <c r="Q212" s="53"/>
+      <c r="R212" s="56"/>
     </row>
     <row r="213" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="18"/>
-      <c r="B213" s="64"/>
-      <c r="C213" s="62"/>
+      <c r="B213" s="53"/>
+      <c r="C213" s="55"/>
       <c r="D213" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8974,13 +8952,13 @@
       <c r="N213" s="10"/>
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
-      <c r="Q213" s="64"/>
-      <c r="R213" s="66"/>
+      <c r="Q213" s="53"/>
+      <c r="R213" s="56"/>
     </row>
     <row r="214" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="18"/>
-      <c r="B214" s="65"/>
-      <c r="C214" s="62"/>
+      <c r="B214" s="54"/>
+      <c r="C214" s="55"/>
       <c r="D214" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9009,13 +8987,13 @@
       <c r="N214" s="10"/>
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
-      <c r="Q214" s="65"/>
-      <c r="R214" s="66"/>
+      <c r="Q214" s="54"/>
+      <c r="R214" s="56"/>
     </row>
     <row r="215" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="18"/>
-      <c r="B215" s="63"/>
-      <c r="C215" s="62"/>
+      <c r="B215" s="52"/>
+      <c r="C215" s="55"/>
       <c r="D215" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9044,13 +9022,13 @@
       <c r="N215" s="10"/>
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
-      <c r="Q215" s="63"/>
-      <c r="R215" s="66"/>
+      <c r="Q215" s="52"/>
+      <c r="R215" s="56"/>
     </row>
     <row r="216" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="18"/>
-      <c r="B216" s="64"/>
-      <c r="C216" s="62"/>
+      <c r="B216" s="53"/>
+      <c r="C216" s="55"/>
       <c r="D216" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9079,13 +9057,13 @@
       <c r="N216" s="10"/>
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
-      <c r="Q216" s="64"/>
-      <c r="R216" s="66"/>
+      <c r="Q216" s="53"/>
+      <c r="R216" s="56"/>
     </row>
     <row r="217" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="18"/>
-      <c r="B217" s="64"/>
-      <c r="C217" s="62"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="55"/>
       <c r="D217" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9114,13 +9092,13 @@
       <c r="N217" s="10"/>
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
-      <c r="Q217" s="64"/>
-      <c r="R217" s="66"/>
+      <c r="Q217" s="53"/>
+      <c r="R217" s="56"/>
     </row>
     <row r="218" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="18"/>
-      <c r="B218" s="64"/>
-      <c r="C218" s="62"/>
+      <c r="B218" s="53"/>
+      <c r="C218" s="55"/>
       <c r="D218" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9149,13 +9127,13 @@
       <c r="N218" s="10"/>
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
-      <c r="Q218" s="64"/>
-      <c r="R218" s="66"/>
+      <c r="Q218" s="53"/>
+      <c r="R218" s="56"/>
     </row>
     <row r="219" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="18"/>
-      <c r="B219" s="64"/>
-      <c r="C219" s="62"/>
+      <c r="B219" s="53"/>
+      <c r="C219" s="55"/>
       <c r="D219" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9184,13 +9162,13 @@
       <c r="N219" s="10"/>
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
-      <c r="Q219" s="64"/>
-      <c r="R219" s="66"/>
+      <c r="Q219" s="53"/>
+      <c r="R219" s="56"/>
     </row>
     <row r="220" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="18"/>
-      <c r="B220" s="64"/>
-      <c r="C220" s="62"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="55"/>
       <c r="D220" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9219,13 +9197,13 @@
       <c r="N220" s="10"/>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
-      <c r="Q220" s="64"/>
-      <c r="R220" s="66"/>
+      <c r="Q220" s="53"/>
+      <c r="R220" s="56"/>
     </row>
     <row r="221" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="18"/>
-      <c r="B221" s="64"/>
-      <c r="C221" s="62"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="55"/>
       <c r="D221" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9254,13 +9232,13 @@
       <c r="N221" s="10"/>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
-      <c r="Q221" s="64"/>
-      <c r="R221" s="66"/>
+      <c r="Q221" s="53"/>
+      <c r="R221" s="56"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="18"/>
-      <c r="B222" s="64"/>
-      <c r="C222" s="62"/>
+      <c r="B222" s="53"/>
+      <c r="C222" s="55"/>
       <c r="D222" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9289,13 +9267,13 @@
       <c r="N222" s="10"/>
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
-      <c r="Q222" s="64"/>
-      <c r="R222" s="66"/>
+      <c r="Q222" s="53"/>
+      <c r="R222" s="56"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="18"/>
-      <c r="B223" s="64"/>
-      <c r="C223" s="62"/>
+      <c r="B223" s="53"/>
+      <c r="C223" s="55"/>
       <c r="D223" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9324,13 +9302,13 @@
       <c r="N223" s="10"/>
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
-      <c r="Q223" s="64"/>
-      <c r="R223" s="66"/>
+      <c r="Q223" s="53"/>
+      <c r="R223" s="56"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="18"/>
-      <c r="B224" s="64"/>
-      <c r="C224" s="62"/>
+      <c r="B224" s="53"/>
+      <c r="C224" s="55"/>
       <c r="D224" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9359,13 +9337,13 @@
       <c r="N224" s="10"/>
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
-      <c r="Q224" s="64"/>
-      <c r="R224" s="66"/>
+      <c r="Q224" s="53"/>
+      <c r="R224" s="56"/>
     </row>
     <row r="225" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="18"/>
-      <c r="B225" s="64"/>
-      <c r="C225" s="62"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="55"/>
       <c r="D225" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9394,13 +9372,13 @@
       <c r="N225" s="10"/>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
-      <c r="Q225" s="64"/>
-      <c r="R225" s="66"/>
+      <c r="Q225" s="53"/>
+      <c r="R225" s="56"/>
     </row>
     <row r="226" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="18"/>
-      <c r="B226" s="64"/>
-      <c r="C226" s="62"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="55"/>
       <c r="D226" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9429,13 +9407,13 @@
       <c r="N226" s="10"/>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
-      <c r="Q226" s="64"/>
-      <c r="R226" s="66"/>
+      <c r="Q226" s="53"/>
+      <c r="R226" s="56"/>
     </row>
     <row r="227" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="18"/>
-      <c r="B227" s="64"/>
-      <c r="C227" s="62"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="55"/>
       <c r="D227" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9464,13 +9442,13 @@
       <c r="N227" s="10"/>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
-      <c r="Q227" s="64"/>
-      <c r="R227" s="66"/>
+      <c r="Q227" s="53"/>
+      <c r="R227" s="56"/>
     </row>
     <row r="228" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="18"/>
-      <c r="B228" s="64"/>
-      <c r="C228" s="62"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="55"/>
       <c r="D228" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9499,13 +9477,13 @@
       <c r="N228" s="10"/>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
-      <c r="Q228" s="64"/>
-      <c r="R228" s="66"/>
+      <c r="Q228" s="53"/>
+      <c r="R228" s="56"/>
     </row>
     <row r="229" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="18"/>
-      <c r="B229" s="65"/>
-      <c r="C229" s="62"/>
+      <c r="B229" s="54"/>
+      <c r="C229" s="55"/>
       <c r="D229" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9534,13 +9512,13 @@
       <c r="N229" s="10"/>
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
-      <c r="Q229" s="65"/>
-      <c r="R229" s="66"/>
+      <c r="Q229" s="54"/>
+      <c r="R229" s="56"/>
     </row>
     <row r="230" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="18"/>
-      <c r="B230" s="63"/>
-      <c r="C230" s="62"/>
+      <c r="B230" s="52"/>
+      <c r="C230" s="55"/>
       <c r="D230" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9569,13 +9547,13 @@
       <c r="N230" s="10"/>
       <c r="O230" s="10"/>
       <c r="P230" s="36"/>
-      <c r="Q230" s="63"/>
-      <c r="R230" s="66"/>
+      <c r="Q230" s="52"/>
+      <c r="R230" s="56"/>
     </row>
     <row r="231" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="18"/>
-      <c r="B231" s="64"/>
-      <c r="C231" s="62"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="55"/>
       <c r="D231" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9604,13 +9582,13 @@
       <c r="N231" s="10"/>
       <c r="O231" s="10"/>
       <c r="P231" s="36"/>
-      <c r="Q231" s="64"/>
-      <c r="R231" s="66"/>
+      <c r="Q231" s="53"/>
+      <c r="R231" s="56"/>
     </row>
     <row r="232" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="18"/>
-      <c r="B232" s="64"/>
-      <c r="C232" s="62"/>
+      <c r="B232" s="53"/>
+      <c r="C232" s="55"/>
       <c r="D232" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9639,13 +9617,13 @@
       <c r="N232" s="10"/>
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
-      <c r="Q232" s="64"/>
-      <c r="R232" s="66"/>
+      <c r="Q232" s="53"/>
+      <c r="R232" s="56"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="18"/>
-      <c r="B233" s="64"/>
-      <c r="C233" s="62"/>
+      <c r="B233" s="53"/>
+      <c r="C233" s="55"/>
       <c r="D233" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9674,13 +9652,13 @@
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
-      <c r="Q233" s="64"/>
-      <c r="R233" s="66"/>
+      <c r="Q233" s="53"/>
+      <c r="R233" s="56"/>
     </row>
     <row r="234" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="18"/>
-      <c r="B234" s="64"/>
-      <c r="C234" s="62"/>
+      <c r="B234" s="53"/>
+      <c r="C234" s="55"/>
       <c r="D234" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9709,13 +9687,13 @@
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
-      <c r="Q234" s="64"/>
-      <c r="R234" s="66"/>
+      <c r="Q234" s="53"/>
+      <c r="R234" s="56"/>
     </row>
     <row r="235" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="18"/>
-      <c r="B235" s="64"/>
-      <c r="C235" s="62"/>
+      <c r="B235" s="53"/>
+      <c r="C235" s="55"/>
       <c r="D235" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9744,13 +9722,13 @@
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
-      <c r="Q235" s="64"/>
-      <c r="R235" s="66"/>
+      <c r="Q235" s="53"/>
+      <c r="R235" s="56"/>
     </row>
     <row r="236" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="18"/>
-      <c r="B236" s="64"/>
-      <c r="C236" s="62"/>
+      <c r="B236" s="53"/>
+      <c r="C236" s="55"/>
       <c r="D236" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9779,13 +9757,13 @@
       <c r="N236" s="10"/>
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
-      <c r="Q236" s="64"/>
-      <c r="R236" s="66"/>
+      <c r="Q236" s="53"/>
+      <c r="R236" s="56"/>
     </row>
     <row r="237" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="18"/>
-      <c r="B237" s="64"/>
-      <c r="C237" s="62"/>
+      <c r="B237" s="53"/>
+      <c r="C237" s="55"/>
       <c r="D237" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9814,13 +9792,13 @@
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
-      <c r="Q237" s="64"/>
-      <c r="R237" s="66"/>
+      <c r="Q237" s="53"/>
+      <c r="R237" s="56"/>
     </row>
     <row r="238" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="18"/>
-      <c r="B238" s="64"/>
-      <c r="C238" s="62"/>
+      <c r="B238" s="53"/>
+      <c r="C238" s="55"/>
       <c r="D238" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9849,13 +9827,13 @@
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
-      <c r="Q238" s="64"/>
-      <c r="R238" s="66"/>
+      <c r="Q238" s="53"/>
+      <c r="R238" s="56"/>
     </row>
     <row r="239" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="18"/>
-      <c r="B239" s="64"/>
-      <c r="C239" s="62"/>
+      <c r="B239" s="53"/>
+      <c r="C239" s="55"/>
       <c r="D239" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9884,13 +9862,13 @@
       <c r="N239" s="10"/>
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
-      <c r="Q239" s="64"/>
-      <c r="R239" s="66"/>
+      <c r="Q239" s="53"/>
+      <c r="R239" s="56"/>
     </row>
     <row r="240" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="18"/>
-      <c r="B240" s="64"/>
-      <c r="C240" s="62"/>
+      <c r="B240" s="53"/>
+      <c r="C240" s="55"/>
       <c r="D240" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9919,13 +9897,13 @@
       <c r="N240" s="10"/>
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
-      <c r="Q240" s="64"/>
-      <c r="R240" s="66"/>
+      <c r="Q240" s="53"/>
+      <c r="R240" s="56"/>
     </row>
     <row r="241" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="18"/>
-      <c r="B241" s="64"/>
-      <c r="C241" s="62"/>
+      <c r="B241" s="53"/>
+      <c r="C241" s="55"/>
       <c r="D241" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9954,13 +9932,13 @@
       <c r="N241" s="10"/>
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
-      <c r="Q241" s="64"/>
-      <c r="R241" s="66"/>
+      <c r="Q241" s="53"/>
+      <c r="R241" s="56"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="18"/>
-      <c r="B242" s="64"/>
-      <c r="C242" s="62"/>
+      <c r="B242" s="53"/>
+      <c r="C242" s="55"/>
       <c r="D242" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9989,13 +9967,13 @@
       <c r="N242" s="10"/>
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
-      <c r="Q242" s="64"/>
-      <c r="R242" s="66"/>
+      <c r="Q242" s="53"/>
+      <c r="R242" s="56"/>
     </row>
     <row r="243" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="18"/>
-      <c r="B243" s="64"/>
-      <c r="C243" s="62"/>
+      <c r="B243" s="53"/>
+      <c r="C243" s="55"/>
       <c r="D243" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10024,13 +10002,13 @@
       <c r="N243" s="10"/>
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
-      <c r="Q243" s="64"/>
-      <c r="R243" s="66"/>
+      <c r="Q243" s="53"/>
+      <c r="R243" s="56"/>
     </row>
     <row r="244" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="18"/>
-      <c r="B244" s="65"/>
-      <c r="C244" s="62"/>
+      <c r="B244" s="54"/>
+      <c r="C244" s="55"/>
       <c r="D244" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10059,13 +10037,13 @@
       <c r="N244" s="10"/>
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
-      <c r="Q244" s="65"/>
-      <c r="R244" s="66"/>
+      <c r="Q244" s="54"/>
+      <c r="R244" s="56"/>
     </row>
     <row r="245" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="18"/>
-      <c r="B245" s="63"/>
-      <c r="C245" s="62"/>
+      <c r="B245" s="52"/>
+      <c r="C245" s="55"/>
       <c r="D245" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10094,13 +10072,13 @@
       <c r="N245" s="10"/>
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
-      <c r="Q245" s="63"/>
-      <c r="R245" s="66"/>
+      <c r="Q245" s="52"/>
+      <c r="R245" s="56"/>
     </row>
     <row r="246" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="18"/>
-      <c r="B246" s="64"/>
-      <c r="C246" s="62"/>
+      <c r="B246" s="53"/>
+      <c r="C246" s="55"/>
       <c r="D246" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10129,13 +10107,13 @@
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
-      <c r="Q246" s="64"/>
-      <c r="R246" s="66"/>
+      <c r="Q246" s="53"/>
+      <c r="R246" s="56"/>
     </row>
     <row r="247" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="18"/>
-      <c r="B247" s="64"/>
-      <c r="C247" s="62"/>
+      <c r="B247" s="53"/>
+      <c r="C247" s="55"/>
       <c r="D247" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10164,13 +10142,13 @@
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
-      <c r="Q247" s="64"/>
-      <c r="R247" s="66"/>
+      <c r="Q247" s="53"/>
+      <c r="R247" s="56"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="18"/>
-      <c r="B248" s="64"/>
-      <c r="C248" s="62"/>
+      <c r="B248" s="53"/>
+      <c r="C248" s="55"/>
       <c r="D248" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10199,13 +10177,13 @@
       <c r="N248" s="10"/>
       <c r="O248" s="10"/>
       <c r="P248" s="10"/>
-      <c r="Q248" s="64"/>
-      <c r="R248" s="66"/>
+      <c r="Q248" s="53"/>
+      <c r="R248" s="56"/>
     </row>
     <row r="249" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="18"/>
-      <c r="B249" s="64"/>
-      <c r="C249" s="62"/>
+      <c r="B249" s="53"/>
+      <c r="C249" s="55"/>
       <c r="D249" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10234,13 +10212,13 @@
       <c r="N249" s="10"/>
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
-      <c r="Q249" s="64"/>
-      <c r="R249" s="66"/>
+      <c r="Q249" s="53"/>
+      <c r="R249" s="56"/>
     </row>
     <row r="250" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="18"/>
-      <c r="B250" s="64"/>
-      <c r="C250" s="62"/>
+      <c r="B250" s="53"/>
+      <c r="C250" s="55"/>
       <c r="D250" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10269,13 +10247,13 @@
       <c r="N250" s="10"/>
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
-      <c r="Q250" s="64"/>
-      <c r="R250" s="66"/>
+      <c r="Q250" s="53"/>
+      <c r="R250" s="56"/>
     </row>
     <row r="251" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="18"/>
-      <c r="B251" s="64"/>
-      <c r="C251" s="62"/>
+      <c r="B251" s="53"/>
+      <c r="C251" s="55"/>
       <c r="D251" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10304,13 +10282,13 @@
       <c r="N251" s="10"/>
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
-      <c r="Q251" s="64"/>
-      <c r="R251" s="66"/>
+      <c r="Q251" s="53"/>
+      <c r="R251" s="56"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="18"/>
-      <c r="B252" s="64"/>
-      <c r="C252" s="62"/>
+      <c r="B252" s="53"/>
+      <c r="C252" s="55"/>
       <c r="D252" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10339,13 +10317,13 @@
       <c r="N252" s="10"/>
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
-      <c r="Q252" s="64"/>
-      <c r="R252" s="66"/>
+      <c r="Q252" s="53"/>
+      <c r="R252" s="56"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="18"/>
-      <c r="B253" s="64"/>
-      <c r="C253" s="62"/>
+      <c r="B253" s="53"/>
+      <c r="C253" s="55"/>
       <c r="D253" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10374,13 +10352,13 @@
       <c r="N253" s="10"/>
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
-      <c r="Q253" s="64"/>
-      <c r="R253" s="66"/>
+      <c r="Q253" s="53"/>
+      <c r="R253" s="56"/>
     </row>
     <row r="254" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="18"/>
-      <c r="B254" s="64"/>
-      <c r="C254" s="62"/>
+      <c r="B254" s="53"/>
+      <c r="C254" s="55"/>
       <c r="D254" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10409,13 +10387,13 @@
       <c r="N254" s="10"/>
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
-      <c r="Q254" s="64"/>
-      <c r="R254" s="66"/>
+      <c r="Q254" s="53"/>
+      <c r="R254" s="56"/>
     </row>
     <row r="255" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="18"/>
-      <c r="B255" s="64"/>
-      <c r="C255" s="62"/>
+      <c r="B255" s="53"/>
+      <c r="C255" s="55"/>
       <c r="D255" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10444,13 +10422,13 @@
       <c r="N255" s="10"/>
       <c r="O255" s="10"/>
       <c r="P255" s="10"/>
-      <c r="Q255" s="64"/>
-      <c r="R255" s="66"/>
+      <c r="Q255" s="53"/>
+      <c r="R255" s="56"/>
     </row>
     <row r="256" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="18"/>
-      <c r="B256" s="64"/>
-      <c r="C256" s="62"/>
+      <c r="B256" s="53"/>
+      <c r="C256" s="55"/>
       <c r="D256" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10479,13 +10457,13 @@
       <c r="N256" s="10"/>
       <c r="O256" s="10"/>
       <c r="P256" s="10"/>
-      <c r="Q256" s="64"/>
-      <c r="R256" s="66"/>
+      <c r="Q256" s="53"/>
+      <c r="R256" s="56"/>
     </row>
     <row r="257" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="18"/>
-      <c r="B257" s="64"/>
-      <c r="C257" s="62"/>
+      <c r="B257" s="53"/>
+      <c r="C257" s="55"/>
       <c r="D257" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10514,13 +10492,13 @@
       <c r="N257" s="10"/>
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
-      <c r="Q257" s="64"/>
-      <c r="R257" s="66"/>
+      <c r="Q257" s="53"/>
+      <c r="R257" s="56"/>
     </row>
     <row r="258" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="18"/>
-      <c r="B258" s="64"/>
-      <c r="C258" s="62"/>
+      <c r="B258" s="53"/>
+      <c r="C258" s="55"/>
       <c r="D258" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10549,13 +10527,13 @@
       <c r="N258" s="10"/>
       <c r="O258" s="10"/>
       <c r="P258" s="10"/>
-      <c r="Q258" s="64"/>
-      <c r="R258" s="66"/>
+      <c r="Q258" s="53"/>
+      <c r="R258" s="56"/>
     </row>
     <row r="259" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="18"/>
-      <c r="B259" s="65"/>
-      <c r="C259" s="62"/>
+      <c r="B259" s="54"/>
+      <c r="C259" s="55"/>
       <c r="D259" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10584,13 +10562,13 @@
       <c r="N259" s="41"/>
       <c r="O259" s="41"/>
       <c r="P259" s="41"/>
-      <c r="Q259" s="65"/>
-      <c r="R259" s="66"/>
+      <c r="Q259" s="54"/>
+      <c r="R259" s="56"/>
     </row>
     <row r="260" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="18"/>
-      <c r="B260" s="63"/>
-      <c r="C260" s="62"/>
+      <c r="B260" s="52"/>
+      <c r="C260" s="55"/>
       <c r="D260" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10619,13 +10597,13 @@
       <c r="N260" s="41"/>
       <c r="O260" s="41"/>
       <c r="P260" s="41"/>
-      <c r="Q260" s="63"/>
-      <c r="R260" s="66"/>
+      <c r="Q260" s="52"/>
+      <c r="R260" s="56"/>
     </row>
     <row r="261" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="18"/>
-      <c r="B261" s="64"/>
-      <c r="C261" s="62"/>
+      <c r="B261" s="53"/>
+      <c r="C261" s="55"/>
       <c r="D261" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10654,13 +10632,13 @@
       <c r="N261" s="41"/>
       <c r="O261" s="41"/>
       <c r="P261" s="41"/>
-      <c r="Q261" s="64"/>
-      <c r="R261" s="66"/>
+      <c r="Q261" s="53"/>
+      <c r="R261" s="56"/>
     </row>
     <row r="262" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="18"/>
-      <c r="B262" s="64"/>
-      <c r="C262" s="62"/>
+      <c r="B262" s="53"/>
+      <c r="C262" s="55"/>
       <c r="D262" s="4" t="str">
         <f t="shared" ref="D262:D274" si="15">IF(LEN(E262)&gt;5,IF(LEN(K262&amp;L262&amp;M262)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -10689,13 +10667,13 @@
       <c r="N262" s="41"/>
       <c r="O262" s="41"/>
       <c r="P262" s="41"/>
-      <c r="Q262" s="64"/>
-      <c r="R262" s="66"/>
+      <c r="Q262" s="53"/>
+      <c r="R262" s="56"/>
     </row>
     <row r="263" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="18"/>
-      <c r="B263" s="64"/>
-      <c r="C263" s="62"/>
+      <c r="B263" s="53"/>
+      <c r="C263" s="55"/>
       <c r="D263" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10724,13 +10702,13 @@
       <c r="N263" s="41"/>
       <c r="O263" s="41"/>
       <c r="P263" s="41"/>
-      <c r="Q263" s="64"/>
-      <c r="R263" s="66"/>
+      <c r="Q263" s="53"/>
+      <c r="R263" s="56"/>
     </row>
     <row r="264" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="18"/>
-      <c r="B264" s="64"/>
-      <c r="C264" s="62"/>
+      <c r="B264" s="53"/>
+      <c r="C264" s="55"/>
       <c r="D264" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10759,13 +10737,13 @@
       <c r="N264" s="41"/>
       <c r="O264" s="41"/>
       <c r="P264" s="41"/>
-      <c r="Q264" s="64"/>
-      <c r="R264" s="66"/>
+      <c r="Q264" s="53"/>
+      <c r="R264" s="56"/>
     </row>
     <row r="265" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="18"/>
-      <c r="B265" s="64"/>
-      <c r="C265" s="62"/>
+      <c r="B265" s="53"/>
+      <c r="C265" s="55"/>
       <c r="D265" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10794,13 +10772,13 @@
       <c r="N265" s="41"/>
       <c r="O265" s="41"/>
       <c r="P265" s="41"/>
-      <c r="Q265" s="64"/>
-      <c r="R265" s="66"/>
+      <c r="Q265" s="53"/>
+      <c r="R265" s="56"/>
     </row>
     <row r="266" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="18"/>
-      <c r="B266" s="64"/>
-      <c r="C266" s="62"/>
+      <c r="B266" s="53"/>
+      <c r="C266" s="55"/>
       <c r="D266" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10829,13 +10807,13 @@
       <c r="N266" s="41"/>
       <c r="O266" s="41"/>
       <c r="P266" s="41"/>
-      <c r="Q266" s="64"/>
-      <c r="R266" s="66"/>
+      <c r="Q266" s="53"/>
+      <c r="R266" s="56"/>
     </row>
     <row r="267" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="18"/>
-      <c r="B267" s="64"/>
-      <c r="C267" s="62"/>
+      <c r="B267" s="53"/>
+      <c r="C267" s="55"/>
       <c r="D267" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10863,13 +10841,13 @@
       </c>
       <c r="N267" s="41"/>
       <c r="P267" s="41"/>
-      <c r="Q267" s="64"/>
-      <c r="R267" s="66"/>
+      <c r="Q267" s="53"/>
+      <c r="R267" s="56"/>
     </row>
     <row r="268" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="18"/>
-      <c r="B268" s="64"/>
-      <c r="C268" s="62"/>
+      <c r="B268" s="53"/>
+      <c r="C268" s="55"/>
       <c r="D268" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10898,13 +10876,13 @@
       <c r="N268" s="41"/>
       <c r="O268" s="41"/>
       <c r="P268" s="41"/>
-      <c r="Q268" s="64"/>
-      <c r="R268" s="66"/>
+      <c r="Q268" s="53"/>
+      <c r="R268" s="56"/>
     </row>
     <row r="269" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="18"/>
-      <c r="B269" s="64"/>
-      <c r="C269" s="62"/>
+      <c r="B269" s="53"/>
+      <c r="C269" s="55"/>
       <c r="D269" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10933,13 +10911,13 @@
       <c r="N269" s="41"/>
       <c r="O269" s="41"/>
       <c r="P269" s="41"/>
-      <c r="Q269" s="64"/>
-      <c r="R269" s="66"/>
+      <c r="Q269" s="53"/>
+      <c r="R269" s="56"/>
     </row>
     <row r="270" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="18"/>
-      <c r="B270" s="64"/>
-      <c r="C270" s="62"/>
+      <c r="B270" s="53"/>
+      <c r="C270" s="55"/>
       <c r="D270" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10968,13 +10946,13 @@
       <c r="N270" s="41"/>
       <c r="O270" s="41"/>
       <c r="P270" s="41"/>
-      <c r="Q270" s="64"/>
-      <c r="R270" s="66"/>
+      <c r="Q270" s="53"/>
+      <c r="R270" s="56"/>
     </row>
     <row r="271" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="18"/>
-      <c r="B271" s="64"/>
-      <c r="C271" s="62"/>
+      <c r="B271" s="53"/>
+      <c r="C271" s="55"/>
       <c r="D271" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -11003,13 +10981,13 @@
       <c r="N271" s="41"/>
       <c r="O271" s="41"/>
       <c r="P271" s="41"/>
-      <c r="Q271" s="64"/>
-      <c r="R271" s="66"/>
+      <c r="Q271" s="53"/>
+      <c r="R271" s="56"/>
     </row>
     <row r="272" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="18"/>
-      <c r="B272" s="64"/>
-      <c r="C272" s="62"/>
+      <c r="B272" s="53"/>
+      <c r="C272" s="55"/>
       <c r="D272" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -11038,13 +11016,13 @@
       <c r="N272" s="41"/>
       <c r="O272" s="41"/>
       <c r="P272" s="41"/>
-      <c r="Q272" s="64"/>
-      <c r="R272" s="66"/>
+      <c r="Q272" s="53"/>
+      <c r="R272" s="56"/>
     </row>
     <row r="273" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="18"/>
-      <c r="B273" s="64"/>
-      <c r="C273" s="62"/>
+      <c r="B273" s="53"/>
+      <c r="C273" s="55"/>
       <c r="D273" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -11073,13 +11051,13 @@
       <c r="N273" s="41"/>
       <c r="O273" s="41"/>
       <c r="P273" s="41"/>
-      <c r="Q273" s="64"/>
-      <c r="R273" s="66"/>
+      <c r="Q273" s="53"/>
+      <c r="R273" s="56"/>
     </row>
     <row r="274" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="47"/>
-      <c r="B274" s="65"/>
-      <c r="C274" s="62"/>
+      <c r="B274" s="54"/>
+      <c r="C274" s="55"/>
       <c r="D274" s="4" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -11108,8 +11086,8 @@
       <c r="N274" s="41"/>
       <c r="O274" s="41"/>
       <c r="P274" s="41"/>
-      <c r="Q274" s="65"/>
-      <c r="R274" s="66"/>
+      <c r="Q274" s="54"/>
+      <c r="R274" s="56"/>
     </row>
     <row r="275" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G275" s="48"/>
@@ -11127,7 +11105,7 @@
     </row>
     <row r="276" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="50" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B276" s="50"/>
       <c r="C276" s="50"/>
@@ -11169,21 +11147,35 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="60">
-    <mergeCell ref="B260:B274"/>
-    <mergeCell ref="C260:C274"/>
-    <mergeCell ref="Q260:Q274"/>
-    <mergeCell ref="B230:B244"/>
-    <mergeCell ref="C230:C244"/>
-    <mergeCell ref="Q230:Q244"/>
-    <mergeCell ref="B245:B259"/>
-    <mergeCell ref="C245:C259"/>
-    <mergeCell ref="Q245:Q259"/>
-    <mergeCell ref="B200:B214"/>
-    <mergeCell ref="C200:C214"/>
-    <mergeCell ref="Q200:Q214"/>
-    <mergeCell ref="B215:B229"/>
-    <mergeCell ref="C215:C229"/>
-    <mergeCell ref="Q215:Q229"/>
+    <mergeCell ref="R4:R93"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="C19:C33"/>
+    <mergeCell ref="Q19:Q33"/>
+    <mergeCell ref="B34:B48"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A48"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="Q4:Q18"/>
+    <mergeCell ref="C34:C48"/>
+    <mergeCell ref="Q34:Q48"/>
+    <mergeCell ref="A49:A78"/>
+    <mergeCell ref="B49:B63"/>
+    <mergeCell ref="C49:C63"/>
+    <mergeCell ref="Q49:Q63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="C64:C78"/>
+    <mergeCell ref="Q64:Q78"/>
+    <mergeCell ref="A79:A169"/>
+    <mergeCell ref="B79:B93"/>
+    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="Q79:Q93"/>
+    <mergeCell ref="B94:B109"/>
+    <mergeCell ref="C94:C109"/>
+    <mergeCell ref="Q94:Q109"/>
+    <mergeCell ref="B155:B169"/>
+    <mergeCell ref="C155:C169"/>
+    <mergeCell ref="Q155:Q169"/>
     <mergeCell ref="R94:R274"/>
     <mergeCell ref="B110:B124"/>
     <mergeCell ref="C110:C124"/>
@@ -11200,109 +11192,95 @@
     <mergeCell ref="B185:B199"/>
     <mergeCell ref="C185:C199"/>
     <mergeCell ref="Q185:Q199"/>
-    <mergeCell ref="A79:A169"/>
-    <mergeCell ref="B79:B93"/>
-    <mergeCell ref="C79:C93"/>
-    <mergeCell ref="Q79:Q93"/>
-    <mergeCell ref="B94:B109"/>
-    <mergeCell ref="C94:C109"/>
-    <mergeCell ref="Q94:Q109"/>
-    <mergeCell ref="B155:B169"/>
-    <mergeCell ref="C155:C169"/>
-    <mergeCell ref="Q155:Q169"/>
-    <mergeCell ref="A49:A78"/>
-    <mergeCell ref="B49:B63"/>
-    <mergeCell ref="C49:C63"/>
-    <mergeCell ref="Q49:Q63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="C64:C78"/>
-    <mergeCell ref="Q64:Q78"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A48"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="C34:C48"/>
-    <mergeCell ref="Q34:Q48"/>
-    <mergeCell ref="R4:R93"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="C19:C33"/>
-    <mergeCell ref="Q19:Q33"/>
-    <mergeCell ref="B34:B48"/>
+    <mergeCell ref="B200:B214"/>
+    <mergeCell ref="C200:C214"/>
+    <mergeCell ref="Q200:Q214"/>
+    <mergeCell ref="B215:B229"/>
+    <mergeCell ref="C215:C229"/>
+    <mergeCell ref="Q215:Q229"/>
+    <mergeCell ref="B260:B274"/>
+    <mergeCell ref="C260:C274"/>
+    <mergeCell ref="Q260:Q274"/>
+    <mergeCell ref="B230:B244"/>
+    <mergeCell ref="C230:C244"/>
+    <mergeCell ref="Q230:Q244"/>
+    <mergeCell ref="B245:B259"/>
+    <mergeCell ref="C245:C259"/>
+    <mergeCell ref="Q245:Q259"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J277">
-    <cfRule type="expression" dxfId="20" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="17" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G259">
-    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="15" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="16" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H19 H21:H277">
-    <cfRule type="expression" dxfId="17" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="12" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="13" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="11" stopIfTrue="1">
       <formula>N4="FM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R275:R277">
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>R275="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
       <formula>R275="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="8" stopIfTrue="1">
       <formula>N4="DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
       <formula>N4="PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268:Q277 P267:Q267 N4:Q266 N267">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="10" stopIfTrue="1">
       <formula>N4="LM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R274">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D274">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G260:G274">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>G260="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>G260="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11351,9 +11329,17 @@
     <hyperlink ref="E140" r:id="rId25"/>
     <hyperlink ref="E141" r:id="rId26"/>
     <hyperlink ref="E155" r:id="rId27"/>
+    <hyperlink ref="E21" r:id="rId28"/>
+    <hyperlink ref="E50" r:id="rId29"/>
+    <hyperlink ref="E81" r:id="rId30" display="ORG_Benchmark Appraisal Schedule"/>
+    <hyperlink ref="E127" r:id="rId31"/>
+    <hyperlink ref="E128" r:id="rId32"/>
+    <hyperlink ref="E129" r:id="rId33"/>
+    <hyperlink ref="E143" r:id="rId34"/>
+    <hyperlink ref="E157" r:id="rId35" display="ORG_IR2019"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;P&amp;R&amp;A</oddHeader>
   </headerFooter>
